--- a/data/19-08-2025-ofc_cables-export_part.xlsx
+++ b/data/19-08-2025-ofc_cables-export_part.xlsx
@@ -165,9 +165,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -269,7 +270,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -295,6 +296,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -549,10 +554,10 @@
   </sheetPr>
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -656,7 +661,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f aca="false">TRIM(LEFT(MID(B2,FIND(" - ",B2)+2,99),  LEN(MID(B2,FIND(" - ",B2)+2,99)) - IF(ISNUMBER(RIGHT(MID(B2,FIND(" - ",B2)+2,99),1)*1),3,0)))</f>
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.REGEX(    TRIM(MID(SUBSTITUTE(SUBSTITUTE(B2,"–","-"),"—","-"),FIND("-",SUBSTITUTE(SUBSTITUTE(B2,"–","-"),"—","-"))+1,99)),    "[-\s]*\d+$",    "" )</f>
         <v>AERIAL JC NEAR BARUIPUR TRAFFIC CONTROL OFF</v>
       </c>
       <c r="D2" s="1" t="str">
@@ -716,8 +721,8 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f aca="false">TRIM(LEFT(MID(B3,FIND(" - ",B3)+2,99),  LEN(MID(B3,FIND(" - ",B3)+2,99)) - IF(ISNUMBER(RIGHT(MID(B3,FIND(" - ",B3)+2,99),1)*1),3,0)))</f>
-        <v>SITAKUND</v>
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.REGEX(    TRIM(MID(SUBSTITUTE(SUBSTITUTE(B3,"–","-"),"—","-"),FIND("-",SUBSTITUTE(SUBSTITUTE(B3,"–","-"),"—","-"))+1,99)),    "[-\s]*\d+$",    "" )</f>
+        <v>SITAKUNDU</v>
       </c>
       <c r="D3" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!B:B, MATCH(TRIM(LEFT(B3, FIND(" - ", B3)-1)), Sheet1!B:B, 0)), "")</f>
@@ -733,15 +738,15 @@
       </c>
       <c r="G3" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($C3)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v/>
+        <v>SITAKUNDU</v>
       </c>
       <c r="H3" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($C3, Sheet1!$B:$B, 0)), "")</f>
-        <v/>
+        <v>69b3cd60-ce89-43b4-ac1f-4671fc02d081</v>
       </c>
       <c r="I3" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($C3)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v/>
+        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>24</v>
@@ -787,10 +792,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="C2:C3 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -798,6 +803,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,6 +816,10 @@
       <c r="C1" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="E1" s="0" t="str">
+        <f aca="false">UPPER(_xlfn.ORG.LIBREOFFICE.REGEX(SUBSTITUTE(TRIM($B1),".",""),"\s*\d+$",""))</f>
+        <v>AP NAGAR@</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -821,6 +831,10 @@
       <c r="C2" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="E2" s="7" t="str">
+        <f aca="false">UPPER(_xlfn.ORG.LIBREOFFICE.REGEX(SUBSTITUTE(TRIM($B2),".",""),"\s*\d+$",""))</f>
+        <v>SITAKUNDU</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -832,6 +846,10 @@
       <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="E3" s="7" t="str">
+        <f aca="false">UPPER(_xlfn.ORG.LIBREOFFICE.REGEX(SUBSTITUTE(TRIM($B3),".",""),"\s*\d+$",""))</f>
+        <v>SITAKUNDU</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -843,6 +861,10 @@
       <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="E4" s="7" t="str">
+        <f aca="false">UPPER(_xlfn.ORG.LIBREOFFICE.REGEX(SUBSTITUTE(TRIM($B4),".",""),"\s*\d+$",""))</f>
+        <v>AP NAGAR</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -854,6 +876,10 @@
       <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="E5" s="7" t="str">
+        <f aca="false">UPPER(_xlfn.ORG.LIBREOFFICE.REGEX(SUBSTITUTE(TRIM($B5),".",""),"\s*\d+$",""))</f>
+        <v>AP NAGAR</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -865,6 +891,10 @@
       <c r="C6" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="E6" s="7" t="str">
+        <f aca="false">UPPER(_xlfn.ORG.LIBREOFFICE.REGEX(SUBSTITUTE(TRIM($B6),".",""),"\s*\d+$",""))</f>
+        <v>BJC KARBALA</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -876,6 +906,10 @@
       <c r="C7" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="E7" s="7" t="str">
+        <f aca="false">UPPER(_xlfn.ORG.LIBREOFFICE.REGEX(SUBSTITUTE(TRIM($B7),".",""),"\s*\d+$",""))</f>
+        <v>ADSR BARUIPUR</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -886,6 +920,10 @@
       </c>
       <c r="C8" s="6" t="s">
         <v>40</v>
+      </c>
+      <c r="E8" s="7" t="str">
+        <f aca="false">UPPER(_xlfn.ORG.LIBREOFFICE.REGEX(SUBSTITUTE(TRIM($B8),".",""),"\s*\d+$",""))</f>
+        <v>AERIAL JC NEAR BARUIPUR TRAFFIC CONTROL OFF</v>
       </c>
     </row>
   </sheetData>
